--- a/data/trans_orig/IP12BS04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F77AAB10-1196-4262-8152-686B5B412308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{561C5D9F-60D0-46D3-A33B-69419A91489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{50F4DD91-4F72-470D-8857-0286C55D9CA8}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A554689A-35E6-40D8-9DE2-60E4D1D4C0D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -83,10 +83,10 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
     <t>10/15</t>
-  </si>
-  <si>
-    <t>5/9</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920472C1-3201-45B8-8590-04C2984EDB0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A69D5C-05FC-4254-A995-FF02E456FA75}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP12BS04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{561C5D9F-60D0-46D3-A33B-69419A91489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E5AF003-911E-4CD3-8170-D63008FAACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A554689A-35E6-40D8-9DE2-60E4D1D4C0D0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A368F153-3468-4FEC-8395-F418B35AACB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="19">
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 4 en 2012 (Tasa respuesta: 0,05%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
   </si>
   <si>
     <t>Vómitos</t>
@@ -83,10 +83,16 @@
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>10/15</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -97,7 +103,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -193,39 +199,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -277,7 +283,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,13 +394,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -403,6 +402,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -467,19 +473,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A69D5C-05FC-4254-A995-FF02E456FA75}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7294D9C-267F-4286-977B-1713E9A8D8DF}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -874,7 +900,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -893,34 +919,30 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -942,40 +964,142 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>627</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="7">
         <v>1</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="7">
         <v>627</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>14</v>
+      <c r="O12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>627</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>627</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP12BS04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS04-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E5AF003-911E-4CD3-8170-D63008FAACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9C14ECF-40EC-49DD-8043-C545AA37FED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A368F153-3468-4FEC-8395-F418B35AACB6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE56D218-4532-446D-A691-5CABAF5B76F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7294D9C-267F-4286-977B-1713E9A8D8DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AA3D58-03ED-4A48-B10A-7FBE405398B9}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
